--- a/EPUI_Data_activity_ALL_q.xlsx
+++ b/EPUI_Data_activity_ALL_q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isrbank.sharepoint.com/sites/EPUi/Shared Documents/General/EPUi_VAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_C8B22765C9ECE3CF980189DF1A663CBC6888CE26" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EEFED516-70FE-4883-9251-7C248E3E7101}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_C8B22765C9ECE3CF980189DF1A663CBC6888CE26" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E11FE196-8FEA-46AA-A7CD-DF415E3A5E35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAME Persistence2" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -573,7 +573,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -674,7 +674,7 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -947,9 +947,9 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>44</v>
       </c>
@@ -957,7 +957,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>66</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>66</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>66</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>66</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>66</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>66</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>66</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>66</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>66</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
@@ -2825,23 +2825,24 @@
   <dimension ref="A1:AR136"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="35.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="5"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="e">
         <f ca="1">[1]!FAMEData(A2,"1988Q1","2021Q2",0,"q", "Down", "No Heading", "Normal")</f>
         <v>#NAME?</v>
@@ -3260,7 +3261,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>32324</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>2.9060666666666677</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>32416</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>2.7787770491803276</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>32508</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>2.874285245901639</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>32598</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>3.1631838709677429</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>32689</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>3.0536360655737713</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>32781</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>3.1829640625</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>32873</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>3.1431080645161291</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>32963</v>
       </c>
@@ -3782,7 +3783,7 @@
       </c>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>33054</v>
       </c>
@@ -3848,7 +3849,7 @@
       </c>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>33146</v>
       </c>
@@ -3914,7 +3915,7 @@
       </c>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>33238</v>
       </c>
@@ -3980,7 +3981,7 @@
       </c>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>33328</v>
       </c>
@@ -4046,7 +4047,7 @@
       </c>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>33419</v>
       </c>
@@ -4112,7 +4113,7 @@
       </c>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>33511</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>3.946373333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>33603</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>4.1819843749999999</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>33694</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>4.15243870967742</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>33785</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>4.395859999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>33877</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>4.6692281249999992</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>33969</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>4.1221983606557373</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>34059</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>4.1225476190476185</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>34150</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>4.2172135593220341</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>34242</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>4.2768327868852465</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>34334</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>4.3794184615384601</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>34424</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>4.4308952380952382</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>34515</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>4.546322950819671</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>34607</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>4.6925816666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>34699</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>4.7860031250000006</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>34789</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>4.7471112903225787</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>34880</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>4.7617716666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>34972</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>4.7308793650793666</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>35064</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>4.7682610169491531</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>35155</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>4.7696645161290343</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35246</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>4.9199160714285721</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35338</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>4.9172677419354844</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35430</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>5.3078174603174606</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35520</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>5.4241842105263158</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>35611</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>5.5852220338983027</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35703</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>5.7383153846153832</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>35795</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>5.8682236363636369</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>35885</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>5.8999868852459016</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>35976</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>6.0758084745762702</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>36068</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>6.1566532258064521</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>36160</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>7.033334920634922</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>36250</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>6.6323816666666655</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>36341</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>6.5705157894736868</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>36433</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>105.64903379354838</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>36525</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>106.64128688769232</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>36616</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>100.0069802973016</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>36707</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>98.276879761428546</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>36799</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>95.605500259682557</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>36891</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>94.024653120322554</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>36981</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>96.177010158870957</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>37072</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>93.207406971290325</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>37164</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>95.30597361216671</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>37256</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>95.89242954682534</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>37346</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>102.33137035000001</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>37437</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>110.98430150655739</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>37529</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>110.55013835238096</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>37621</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>111.15389909846155</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>37711</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>117.42172041333332</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>37802</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>112.38463078867927</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>37894</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>110.81190973125</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>37986</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>114.94190337619047</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>38077</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>118.82826214126987</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>38168</v>
       </c>
@@ -9900,7 +9901,7 @@
         <v>118.62484131929824</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>38260</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>118.36648552931035</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>38352</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>119.73334821538465</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>38442</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>119.92607461269841</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>38533</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>118.95866979672132</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>38625</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>120.33656760454545</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>38717</v>
       </c>
@@ -10704,7 +10705,7 @@
         <v>121.46530789122802</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>38807</v>
       </c>
@@ -10838,7 +10839,7 @@
         <v>123.42028065245904</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>38898</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>121.59915829298244</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>38990</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>119.03897473015873</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>39082</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>116.36504899032258</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>39172</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>116.15410653968257</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>39263</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>114.60337682241376</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>39355</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>119.29220170508475</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>39447</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>115.81963407812502</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>39538</v>
       </c>
@@ -11910,7 +11911,7 @@
         <v>108.18899885555554</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>39629</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>103.86178809161291</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>39721</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>103.43615259296878</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>39813</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>103.21820201389831</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>39903</v>
       </c>
@@ -12446,7 +12447,7 @@
         <v>107.62995005833336</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>39994</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>111.37757116666666</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>40086</v>
       </c>
@@ -12714,7 +12715,7 @@
         <v>108.33298949047622</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>40178</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>108.76449739538458</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>40268</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>105.35481140499999</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>40359</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>103.71913480000005</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>40451</v>
       </c>
@@ -13250,7 +13251,7 @@
         <v>105.28409150338983</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>40543</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>103.21232756969697</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>40633</v>
       </c>
@@ -13518,7 +13519,7 @@
         <v>102.99801250523809</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>40724</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>100.80482202379307</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>40816</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>102.8692353569355</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>40908</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>104.74735379836065</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>40999</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>105.75822575322582</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>41090</v>
       </c>
@@ -14188,7 +14189,7 @@
         <v>105.95046766065575</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>41182</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>109.57334693442624</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>41274</v>
       </c>
@@ -14456,7 +14457,7 @@
         <v>107.34426581269842</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>41364</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>103.80958451724135</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>41455</v>
       </c>
@@ -14724,7 +14725,7 @@
         <v>100.48762812311477</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>41547</v>
       </c>
@@ -14858,7 +14859,7 @@
         <v>98.834542504237305</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>41639</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>98.33893433030768</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>41729</v>
       </c>
@@ -15126,7 +15127,7 @@
         <v>96.758022890000007</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>41820</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>96.035829137241393</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>41912</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>96.051559356774192</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>42004</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>100.7585303214754</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>42094</v>
       </c>
@@ -15662,7 +15663,7 @@
         <v>98.322659762251689</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>42185</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>96.107420029823317</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>42277</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>94.015008326667186</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42369</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>93.640821577318746</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>42460</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>93.354921551379036</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>42551</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>92.823409983159053</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>42643</v>
       </c>
@@ -16466,7 +16467,7 @@
         <v>91.78017262575456</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>42735</v>
       </c>
@@ -16600,7 +16601,7 @@
         <v>90.054959778725845</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42825</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>87.131188378212684</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>42916</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>85.279817283329834</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43008</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>86.877832833708311</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43100</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>85.400280780037093</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43190</v>
       </c>
@@ -17270,7 +17271,7 @@
         <v>86.245072326042646</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43281</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>87.152613794865573</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43373</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>85.832318659191671</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43465</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>86.462275585201567</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43555</v>
       </c>
@@ -17806,7 +17807,7 @@
         <v>85.587350254473762</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43646</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>83.631947144681348</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43738</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>81.502180551256259</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43830</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>80.74611261893665</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43921</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>80.357299668875413</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44012</v>
       </c>
@@ -18476,7 +18477,7 @@
         <v>79.164999623149967</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44104</v>
       </c>
@@ -18610,7 +18611,7 @@
         <v>78.967937245142835</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44196</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>77.895705889667681</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44286</v>
       </c>
@@ -18843,7 +18844,7 @@
         <v>77.363003069824558</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44377</v>
       </c>
@@ -18907,25 +18908,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="AL48" sqref="AL48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="38" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" customWidth="1"/>
+    <col min="5" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="str">
         <f>FAME!A2</f>
         <v>FAMEDATE</v>
@@ -19069,7 +19070,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>32233</v>
       </c>
@@ -19159,7 +19160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>FAME!A4</f>
         <v>32324</v>
@@ -19267,7 +19268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>FAME!A5</f>
         <v>32416</v>
@@ -19375,7 +19376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>FAME!A6</f>
         <v>32508</v>
@@ -19486,7 +19487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>FAME!A7</f>
         <v>32598</v>
@@ -19597,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>FAME!A8</f>
         <v>32689</v>
@@ -19708,7 +19709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>FAME!A9</f>
         <v>32781</v>
@@ -19819,7 +19820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>FAME!A10</f>
         <v>32873</v>
@@ -19930,7 +19931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>FAME!A11</f>
         <v>32963</v>
@@ -20041,7 +20042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>FAME!A12</f>
         <v>33054</v>
@@ -20152,7 +20153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f>FAME!A13</f>
         <v>33146</v>
@@ -20263,7 +20264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>FAME!A14</f>
         <v>33238</v>
@@ -20374,7 +20375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>FAME!A15</f>
         <v>33328</v>
@@ -20485,7 +20486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>FAME!A16</f>
         <v>33419</v>
@@ -20596,7 +20597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f>FAME!A17</f>
         <v>33511</v>
@@ -20707,7 +20708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f>FAME!A18</f>
         <v>33603</v>
@@ -20818,7 +20819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>FAME!A19</f>
         <v>33694</v>
@@ -20929,7 +20930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f>FAME!A20</f>
         <v>33785</v>
@@ -21040,7 +21041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>FAME!A21</f>
         <v>33877</v>
@@ -21151,7 +21152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f>FAME!A22</f>
         <v>33969</v>
@@ -21262,7 +21263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>FAME!A23</f>
         <v>34059</v>
@@ -21373,7 +21374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>FAME!A24</f>
         <v>34150</v>
@@ -21484,7 +21485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f>FAME!A25</f>
         <v>34242</v>
@@ -21595,7 +21596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f>FAME!A26</f>
         <v>34334</v>
@@ -21706,7 +21707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f>FAME!A27</f>
         <v>34424</v>
@@ -21826,7 +21827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f>FAME!A28</f>
         <v>34515</v>
@@ -21946,7 +21947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>FAME!A29</f>
         <v>34607</v>
@@ -22066,7 +22067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f>FAME!A30</f>
         <v>34699</v>
@@ -22186,7 +22187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f>FAME!A31</f>
         <v>34789</v>
@@ -22354,7 +22355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f>FAME!A32</f>
         <v>34880</v>
@@ -22522,7 +22523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f>FAME!A33</f>
         <v>34972</v>
@@ -22690,7 +22691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f>FAME!A34</f>
         <v>35064</v>
@@ -22858,7 +22859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f>FAME!A35</f>
         <v>35155</v>
@@ -23032,7 +23033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f>FAME!A36</f>
         <v>35246</v>
@@ -23206,7 +23207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f>FAME!A37</f>
         <v>35338</v>
@@ -23380,7 +23381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f>FAME!A38</f>
         <v>35430</v>
@@ -23554,7 +23555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f>FAME!A39</f>
         <v>35520</v>
@@ -23728,7 +23729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f>FAME!A40</f>
         <v>35611</v>
@@ -23902,7 +23903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f>FAME!A41</f>
         <v>35703</v>
@@ -24076,7 +24077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f>FAME!A42</f>
         <v>35795</v>
@@ -24250,7 +24251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f>FAME!A43</f>
         <v>35885</v>
@@ -24424,7 +24425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f>FAME!A44</f>
         <v>35976</v>
@@ -24598,7 +24599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f>FAME!A45</f>
         <v>36068</v>
@@ -24772,7 +24773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f>FAME!A46</f>
         <v>36160</v>
@@ -24949,7 +24950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f>FAME!A47</f>
         <v>36250</v>
@@ -25129,7 +25130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f>FAME!A48</f>
         <v>36341</v>
@@ -25309,7 +25310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f>FAME!A49</f>
         <v>36433</v>
@@ -25495,7 +25496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f>FAME!A50</f>
         <v>36525</v>
@@ -25681,7 +25682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f>FAME!A51</f>
         <v>36616</v>
@@ -25870,7 +25871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>FAME!A52</f>
         <v>36707</v>
@@ -26059,7 +26060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f>FAME!A53</f>
         <v>36799</v>
@@ -26248,7 +26249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f>FAME!A54</f>
         <v>36891</v>
@@ -26437,7 +26438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f>FAME!A55</f>
         <v>36981</v>
@@ -26626,7 +26627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f>FAME!A56</f>
         <v>37072</v>
@@ -26815,7 +26816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f>FAME!A57</f>
         <v>37164</v>
@@ -27004,7 +27005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f>FAME!A58</f>
         <v>37256</v>
@@ -27193,7 +27194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f>FAME!A59</f>
         <v>37346</v>
@@ -27382,7 +27383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f>FAME!A60</f>
         <v>37437</v>
@@ -27571,7 +27572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f>FAME!A61</f>
         <v>37529</v>
@@ -27760,7 +27761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f>FAME!A62</f>
         <v>37621</v>
@@ -27949,7 +27950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f>FAME!A63</f>
         <v>37711</v>
@@ -28138,7 +28139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f>FAME!A64</f>
         <v>37802</v>
@@ -28327,7 +28328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f>FAME!A65</f>
         <v>37894</v>
@@ -28516,7 +28517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <f>FAME!A66</f>
         <v>37986</v>
@@ -28705,7 +28706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <f>FAME!A67</f>
         <v>38077</v>
@@ -28894,7 +28895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <f>FAME!A68</f>
         <v>38168</v>
@@ -29083,7 +29084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <f>FAME!A69</f>
         <v>38260</v>
@@ -29272,7 +29273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <f>FAME!A70</f>
         <v>38352</v>
@@ -29461,7 +29462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <f>FAME!A71</f>
         <v>38442</v>
@@ -29650,7 +29651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <f>FAME!A72</f>
         <v>38533</v>
@@ -29839,7 +29840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <f>FAME!A73</f>
         <v>38625</v>
@@ -30028,7 +30029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <f>FAME!A74</f>
         <v>38717</v>
@@ -30217,7 +30218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <f>FAME!A75</f>
         <v>38807</v>
@@ -30406,7 +30407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <f>FAME!A76</f>
         <v>38898</v>
@@ -30595,7 +30596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <f>FAME!A77</f>
         <v>38990</v>
@@ -30784,7 +30785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <f>FAME!A78</f>
         <v>39082</v>
@@ -30973,7 +30974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f>FAME!A79</f>
         <v>39172</v>
@@ -31162,7 +31163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f>FAME!A80</f>
         <v>39263</v>
@@ -31351,7 +31352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <f>FAME!A81</f>
         <v>39355</v>
@@ -31540,7 +31541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <f>FAME!A82</f>
         <v>39447</v>
@@ -31729,7 +31730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <f>FAME!A83</f>
         <v>39538</v>
@@ -31918,7 +31919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <f>FAME!A84</f>
         <v>39629</v>
@@ -32107,7 +32108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <f>FAME!A85</f>
         <v>39721</v>
@@ -32296,7 +32297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <f>FAME!A86</f>
         <v>39813</v>
@@ -32485,7 +32486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <f>FAME!A87</f>
         <v>39903</v>
@@ -32674,7 +32675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <f>FAME!A88</f>
         <v>39994</v>
@@ -32863,7 +32864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <f>FAME!A89</f>
         <v>40086</v>
@@ -33052,7 +33053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <f>FAME!A90</f>
         <v>40178</v>
@@ -33241,7 +33242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <f>FAME!A91</f>
         <v>40268</v>
@@ -33430,7 +33431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <f>FAME!A92</f>
         <v>40359</v>
@@ -33619,7 +33620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f>FAME!A93</f>
         <v>40451</v>
@@ -33808,7 +33809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <f>FAME!A94</f>
         <v>40543</v>
@@ -33997,7 +33998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f>FAME!A95</f>
         <v>40633</v>
@@ -34186,7 +34187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <f>FAME!A96</f>
         <v>40724</v>
@@ -34375,7 +34376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <f>FAME!A97</f>
         <v>40816</v>
@@ -34564,7 +34565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f>FAME!A98</f>
         <v>40908</v>
@@ -34753,7 +34754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f>FAME!A99</f>
         <v>40999</v>
@@ -34942,7 +34943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f>FAME!A100</f>
         <v>41090</v>
@@ -35131,7 +35132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f>FAME!A101</f>
         <v>41182</v>
@@ -35320,7 +35321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f>FAME!A102</f>
         <v>41274</v>
@@ -35509,7 +35510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f>FAME!A103</f>
         <v>41364</v>
@@ -35698,7 +35699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f>FAME!A104</f>
         <v>41455</v>
@@ -35887,7 +35888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <f>FAME!A105</f>
         <v>41547</v>
@@ -36076,7 +36077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>FAME!A106</f>
         <v>41639</v>
@@ -36265,7 +36266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f>FAME!A107</f>
         <v>41729</v>
@@ -36454,7 +36455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <f>FAME!A108</f>
         <v>41820</v>
@@ -36643,7 +36644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f>FAME!A109</f>
         <v>41912</v>
@@ -36832,7 +36833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f>FAME!A110</f>
         <v>42004</v>
@@ -37021,7 +37022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f>FAME!A111</f>
         <v>42094</v>
@@ -37210,7 +37211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <f>FAME!A112</f>
         <v>42185</v>
@@ -37399,7 +37400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <f>FAME!A113</f>
         <v>42277</v>
@@ -37588,7 +37589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <f>FAME!A114</f>
         <v>42369</v>
@@ -37777,7 +37778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <f>FAME!A115</f>
         <v>42460</v>
@@ -37966,7 +37967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <f>FAME!A116</f>
         <v>42551</v>
@@ -38155,7 +38156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <f>FAME!A117</f>
         <v>42643</v>
@@ -38344,7 +38345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <f>FAME!A118</f>
         <v>42735</v>
@@ -38533,7 +38534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <f>FAME!A119</f>
         <v>42825</v>
@@ -38722,7 +38723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <f>FAME!A120</f>
         <v>42916</v>
@@ -38911,7 +38912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <f>FAME!A121</f>
         <v>43008</v>
@@ -39100,7 +39101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <f>FAME!A122</f>
         <v>43100</v>
@@ -39289,7 +39290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <f>FAME!A123</f>
         <v>43190</v>
@@ -39478,7 +39479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <f>FAME!A124</f>
         <v>43281</v>
@@ -39667,7 +39668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <f>FAME!A125</f>
         <v>43373</v>
@@ -39856,7 +39857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <f>FAME!A126</f>
         <v>43465</v>
@@ -40045,7 +40046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <f>FAME!A127</f>
         <v>43555</v>
@@ -40234,7 +40235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <f>FAME!A128</f>
         <v>43646</v>
@@ -40423,7 +40424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <f>FAME!A129</f>
         <v>43738</v>
@@ -40612,7 +40613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <f>FAME!A130</f>
         <v>43830</v>
@@ -40801,7 +40802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <f>FAME!A131</f>
         <v>43921</v>
@@ -40990,7 +40991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <f>FAME!A132</f>
         <v>44012</v>
@@ -41179,7 +41180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <f>FAME!A133</f>
         <v>44104</v>
@@ -41368,7 +41369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <f>FAME!A134</f>
         <v>44196</v>
@@ -41557,7 +41558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <f>FAME!A135</f>
         <v>44286</v>
@@ -41746,7 +41747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <f>FAME!A136</f>
         <v>44377</v>
@@ -41932,7 +41933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <f>FAME!A137</f>
         <v>0</v>
@@ -42118,7 +42119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <f>FAME!A138</f>
         <v>0</v>
@@ -42304,7 +42305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <f>FAME!A139</f>
         <v>0</v>
@@ -42490,7 +42491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <f>FAME!A140</f>
         <v>0</v>
@@ -42676,7 +42677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <f>FAME!A141</f>
         <v>0</v>
@@ -42862,7 +42863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <f>FAME!A142</f>
         <v>0</v>
@@ -43048,7 +43049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <f>FAME!A143</f>
         <v>0</v>
@@ -43234,7 +43235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <f>FAME!A144</f>
         <v>0</v>
@@ -43420,7 +43421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <f>FAME!A145</f>
         <v>0</v>
@@ -43606,7 +43607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <f>FAME!A146</f>
         <v>0</v>
@@ -43792,7 +43793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <f>FAME!A147</f>
         <v>0</v>
@@ -43978,7 +43979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <f>FAME!A148</f>
         <v>0</v>
@@ -44164,7 +44165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <f>FAME!A149</f>
         <v>0</v>
@@ -44350,7 +44351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <f>FAME!A150</f>
         <v>0</v>
@@ -44536,7 +44537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <f>FAME!A151</f>
         <v>0</v>
@@ -44698,7 +44699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <f>FAME!A152</f>
         <v>0</v>
@@ -44866,23 +44867,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7E2C7718986FB4B9241671D99B1FB8D" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eb0a6780dfcebf4ad9a2120d556531c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0dab513-4ef6-4f68-a4e8-eada123e36a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e3f36e602dc7511ed11b99db5cb5355" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7E2C7718986FB4B9241671D99B1FB8D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bab69e7af17cb87b7da0e754a26d1d22">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0dab513-4ef6-4f68-a4e8-eada123e36a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31224f15db28d4671cd82e2d1f828525" ns2:_="">
     <xsd:import namespace="c0dab513-4ef6-4f68-a4e8-eada123e36a9"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -44896,6 +44882,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -44936,6 +44923,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -45038,25 +45030,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36991DFB-7A78-4ECB-AFED-76D839F8AF65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AF32AC-DB41-499A-A6A4-A251DF6F302A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{710B43A1-802B-4388-8B19-A8DE2B9FE02A}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E167E68D-9B2F-4CBF-AA5F-5AE5993F4AF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -45071,4 +45061,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36991DFB-7A78-4ECB-AFED-76D839F8AF65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AF32AC-DB41-499A-A6A4-A251DF6F302A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>